--- a/Wenn_alle_Autos_heute_5_Jahre_alt_wäre.xlsx
+++ b/Wenn_alle_Autos_heute_5_Jahre_alt_wäre.xlsx
@@ -483,13 +483,13 @@
         <v>2100</v>
       </c>
       <c r="D2" t="n">
-        <v>3390</v>
+        <v>4227.5</v>
       </c>
       <c r="E2" t="n">
         <v>3340</v>
       </c>
       <c r="F2" t="n">
-        <v>69.80000000000018</v>
+        <v>369.8000000000002</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -515,13 +515,13 @@
         <v>2280</v>
       </c>
       <c r="D3" t="n">
-        <v>3480</v>
+        <v>4317.5</v>
       </c>
       <c r="E3" t="n">
         <v>3750</v>
       </c>
       <c r="F3" t="n">
-        <v>159.8000000000002</v>
+        <v>459.8000000000002</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -547,13 +547,13 @@
         <v>2520</v>
       </c>
       <c r="D4" t="n">
-        <v>5140</v>
+        <v>5707.5</v>
       </c>
       <c r="E4" t="n">
         <v>5100</v>
       </c>
       <c r="F4" t="n">
-        <v>1819.8</v>
+        <v>1849.8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -579,13 +579,13 @@
         <v>2775</v>
       </c>
       <c r="D5" t="n">
-        <v>5185</v>
+        <v>5788.5</v>
       </c>
       <c r="E5" t="n">
         <v>4676</v>
       </c>
       <c r="F5" t="n">
-        <v>1864.8</v>
+        <v>1930.8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +611,13 @@
         <v>7000</v>
       </c>
       <c r="D6" t="n">
-        <v>9530</v>
+        <v>10367.5</v>
       </c>
       <c r="E6" t="n">
         <v>3880</v>
       </c>
       <c r="F6" t="n">
-        <v>6209.8</v>
+        <v>6509.8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -643,13 +643,13 @@
         <v>2105.3</v>
       </c>
       <c r="D7" t="n">
-        <v>3335.3</v>
+        <v>4172.8</v>
       </c>
       <c r="E7" t="n">
         <v>3880</v>
       </c>
       <c r="F7" t="n">
-        <v>15.10000000000036</v>
+        <v>315.1000000000004</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>2307.7</v>
       </c>
       <c r="D8" t="n">
-        <v>3320.2</v>
+        <v>3857.7</v>
       </c>
       <c r="E8" t="n">
         <v>3862.5</v>
